--- a/Declarações/Caixa de confissão.xlsx
+++ b/Declarações/Caixa de confissão.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A grande virada\Declarações\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Heber-EARQ\Treinamentos\Projeto-JavaScript\Declarações\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7BF294-E983-42AC-A28D-D19B2FA67E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6D428F-C121-45CA-80C4-AF4BBC821E4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{8C05EC88-38C5-472A-9600-1DCC62948BBD}"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{8C05EC88-38C5-472A-9600-1DCC62948BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="431">
   <si>
     <t>Salmos 128:1-2</t>
   </si>
@@ -1168,6 +1161,169 @@
   </si>
   <si>
     <t xml:space="preserve">Não saia da vossa boca nenhuma palavra torpe, e sim unicamente a que for boa para edificação, conforme a necessidade, e assim, transmita graça aos que ouvem. </t>
+  </si>
+  <si>
+    <t>Eu sou o corpo de Cristo e satanás não tem poder sobre mim, porque eu venço o mal com o bem</t>
+  </si>
+  <si>
+    <t>Eu sou de Deus e venci satanás, porque maior é aquele que está em mim do que o que está no mundo</t>
+  </si>
+  <si>
+    <t>Não temerei mal algum porque tu estás comigo Senhor, a tua palavra e o teu Espírito me consolam</t>
+  </si>
+  <si>
+    <t>Estou longe da opressão e o medo não se aproxima de mim</t>
+  </si>
+  <si>
+    <t>Nenhuma arma forjada contra mim prosperará porque a minha justiça é do Senhor, mas tudo o que eu faço prospera, porque sou como árvores plantadas juntos aos ribeiros de águas.</t>
+  </si>
+  <si>
+    <t>Sou liberto dos males deste mundo porque essa é a vontade de Deus!</t>
+  </si>
+  <si>
+    <t>Nenhum mal me sucederá e nenhuma praga chegará a minha habitação porque tu deste ordens aos teus anjos ao meu respeito, e eles me guardam em todos os meus caminhos. No meu caminho está a vida e não a morte</t>
+  </si>
+  <si>
+    <t>Sou um praticante da palavra de Deus e sou abençoado nos meus atos. Sou feliz nestas coisas que faço porque sou um praticante da palavra de Deus</t>
+  </si>
+  <si>
+    <t>Tomo o escudo da fé e apago todos os dardos inflamados que o maligno lança sobre mim.</t>
+  </si>
+  <si>
+    <t>Cristo me redimiu da maldição da lei, assim, eu proíbo toda doença e enfermidade de vir sobre o meu corpo. Todo germe de enfermidade e todo vírus que toca esse corpo morre instantaneamente em nome de Jesus! Cada órgão e cada tecido deste corpo funcionam na perfeição com a qual Deus os criou para funcionar, e eu proíbo qualquer mal funcionamento neste corpo em nome de Jesus Cristo!</t>
+  </si>
+  <si>
+    <t>Sou um vencedor e venço pelo sangue do Cordeiro e pela palavra do meu testemunho!</t>
+  </si>
+  <si>
+    <t>O diabo foge de mim porque eu resisto a ele em nome de Jesus</t>
+  </si>
+  <si>
+    <t>A palavra de Deus está para sempre estabelecida no céu, assim eu estabeleço a sua palavra sobre esta terra</t>
+  </si>
+  <si>
+    <t>Grande é a paz dos meus filhos porque eles são ensinados pelo senhor</t>
+  </si>
+  <si>
+    <t>Cristo me redimiu da maldição da lei, Cristo me redimiu da pobreza, Cristo me redimiu da doença, Cristo me redimiu da morte espiritual</t>
+  </si>
+  <si>
+    <t>Em lugar da pobreza Ele me deu riquezas, em lugar da doença Ele me deu saúde, em lugar da morte Ele me deu vida eterna</t>
+  </si>
+  <si>
+    <t>Ele me vivifica segundo a palavra de Deus</t>
+  </si>
+  <si>
+    <t>Eu me agrado do Senhor e Ele me concede os desejos do meu coração</t>
+  </si>
+  <si>
+    <t>Eu dei e me será dado em boa medida recalcada, sacudida, transbordante que virão sobre mim</t>
+  </si>
+  <si>
+    <t>Com a mesma medida que meço, para mim também é medido. Semeio abundantemente, portanto, colho abundantemente. Dou com alegria e o meu Deus fez com que toda graça seja abundante para comigo</t>
+  </si>
+  <si>
+    <t>Tendo eu toda a suficiência em todas as coisas, sou abundante em todas as boas obras” "Não tenho falta porque o meu Deus supre todas as minhas necessidades, portanto nunca terei falta segundo as suas riquezas em glória. Por Cristo Jesus eu sou suprido</t>
+  </si>
+  <si>
+    <t>O Senhor é o meu pastor e nada me falta porque Jesus se fez pobre a fim de que através da sua pobreza eu pudesse ter abundância. Porque Ele veio para que eu pudesse ter vida e a tivesse com abundância.</t>
+  </si>
+  <si>
+    <t>Eu tendo recebido o dom da Justiça reino em vida como rei, por meio de Cristo Jesus</t>
+  </si>
+  <si>
+    <t>O Senhor tem prazer na prosperidade do seu servo e as bênçãos de Abraão me pertencem</t>
+  </si>
+  <si>
+    <t>O Espírito da Verdade permanece em mim e me ensina todas as coisas, Ele me guia a toda verdade, assim confesso que tenho o conhecimento perfeito de todas as situações e de todas as circunstâncias com as quais eu me deparo, porque tenho a sabedoria de Deus.</t>
+  </si>
+  <si>
+    <t>Confio no Senhor de todo o meu coração e não me firmo no meu próprio entendimento</t>
+  </si>
+  <si>
+    <t>Eu reconheço o Senhor em todos os meus caminhos, e Ele dirige o meu caminho.</t>
+  </si>
+  <si>
+    <t>A palavra de Deus é uma lâmpada para os meus pés é uma luz para o meu caminho.</t>
+  </si>
+  <si>
+    <t>O Senhor aperfeiçoará aquilo que diz respeito a mim</t>
+  </si>
+  <si>
+    <t>Permito que a palavra de Cristo habite ricamente em mim e em toda a sabedoria</t>
+  </si>
+  <si>
+    <t>Sigo o bom pastor e conheço a sua voz e a voz do estranho não seguirei</t>
+  </si>
+  <si>
+    <t>Jesus foi feito para mim sabedoria, justiça, santificação e redenção, portanto, confesso que tenho a sabedoria de Deus e Sou a justiça de Deus em Cristo Jesus.</t>
+  </si>
+  <si>
+    <t>Sou cheio do conhecimento da vontade do Senhor em toda sabedoria e entendimento espiritual</t>
+  </si>
+  <si>
+    <t>Sou nova criatura em Cristo, sou feitura Dele criado em Cristo Jesus, portanto tenho a mente de Cristo e a sabedoria dele é formada dentro de mim</t>
+  </si>
+  <si>
+    <t>O Espírito da verdade permanece em mim e me ensina todas as coisas, e eu tenho a mente de cristo</t>
+  </si>
+  <si>
+    <t>Eu me despi do velho homem e revisto do novo homem que se renova no conhecimento, segundo a imagem daquele que me criou.</t>
+  </si>
+  <si>
+    <t>Recebo o Espirito de sabedoria e revelação no conhecimento Dele, sendo iluminados os olhos do meu conhecimento, e não me conformo com este mundo, mas sou transformado pela renovação da minha mente. A minha mente é renovada pela palavra de Deus.</t>
+  </si>
+  <si>
+    <t>Estou crescendo no conhecimento de Deus. Sou fortalecido com todo o poder de acordo com o seu glorioso poder.</t>
+  </si>
+  <si>
+    <t>Sou liberto do poder das trevas e sou transportado para o reino do filho do seu amor</t>
+  </si>
+  <si>
+    <t>Sou nascido de Deus e tenho a fé que vence o mundo habitando dentro de mim, porque maior é aquele que está em mim do que aquele que está no mundo</t>
+  </si>
+  <si>
+    <t>Farei todas as coisas através de Cristo Jesus que me fortalece</t>
+  </si>
+  <si>
+    <t>A alegria do Senhor é a minha força, o Senhor é a fortaleza da minha vida</t>
+  </si>
+  <si>
+    <t>A paz de Deus que excede todo entendimento guarda o meu coração e a minha mente através de Cristo Jesus, e todas as coisas que são boas, puras, perfeitas, amáveis e de boa fama, nelas eu penso.</t>
+  </si>
+  <si>
+    <t>Falo a verdade da palavra de Deus em amor e cresço no Senhor Jesus Cristo em todas estas coisas</t>
+  </si>
+  <si>
+    <t>Não permito que nenhuma comunicação corrupta proceda da minha boca, mas somente aquela que for boa para edificação, que possa ministrar graça ao ouvinte. Não entristeço o Espirito Santo de Deus por quem fui selado para o dia da redenção</t>
+  </si>
+  <si>
+    <t>Ninguém me tirará da sua mão, porque tenho vida eterna</t>
+  </si>
+  <si>
+    <t>Permito que a paz de Deus governe em meu coração e me recuso a me preocupar com qualquer coisa</t>
+  </si>
+  <si>
+    <t>Não permitirei que a palavra de Deus se afaste da minha boca e de diante dos meus olhos, porque ela é vida para mim, porque eu a encontrei e ela é saúde e cura para toda a minha carne</t>
+  </si>
+  <si>
+    <t>Deus está do meu lado, Deus está em mim agora, quem pode estar contra mim? Ele me deu toda as coisas que dizem respeito a vida e a piedade, portanto sou participante da sua Natureza Divina</t>
+  </si>
+  <si>
+    <t>Sou um crente e esses sinais me seguem: em nome de Jesus expulso demônios, falo em novas línguas, imponho as mãos sobre os enfermos e eles são curados</t>
+  </si>
+  <si>
+    <t>Jesus me deu a autoridade para usar o seu nome, e aquilo que eu ligo na terra é ligado no céu, e aquilo que eu desligo na terra é desligado no céu, portanto em nome do Senhor Jesus Cristo amarro os principados, os poderes os dominadores deste mundo tenebroso. Amarro e expulso a maldade espiritual nas regiões celestiais e os tornos impotentes e ineficazes contra mim em nome de Jesus.</t>
+  </si>
+  <si>
+    <t>Estou completo nele que é o cabeça de todo principado e potestade, porque sou feitura dele criado em Cristo Jesus para as boas obras que Deus preordenou que eu andasse nelas</t>
+  </si>
+  <si>
+    <t>Sou abençoado com todas as sortes de bençãos espirituais em Cristo. Tudo foi conquistado para mim na cruz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1° Co 12.27
+Rm 12.21 </t>
   </si>
 </sst>
 </file>
@@ -1363,17 +1519,29 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1387,28 +1555,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1417,10 +1567,16 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1745,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C14F1B4-78FF-40F2-8B6E-6A68EC962608}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K30" sqref="K30:O30"/>
     </sheetView>
   </sheetViews>
@@ -1766,29 +1922,29 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="14" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
     </row>
     <row r="2" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="16" t="s">
         <v>99</v>
       </c>
@@ -1796,13 +1952,13 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="16" t="s">
         <v>275</v>
       </c>
@@ -1812,13 +1968,13 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="16" t="s">
         <v>105</v>
       </c>
@@ -1826,103 +1982,103 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="17" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
     </row>
     <row r="4" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="18" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="22" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="17" t="s">
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="22" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="17" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
     </row>
     <row r="6" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="14" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="22" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
       <c r="P6" s="16" t="s">
         <v>296</v>
       </c>
@@ -1939,147 +2095,147 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="22" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="18" t="s">
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="8" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="14" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="18" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="20" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
     </row>
     <row r="9" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="17" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="20" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
     </row>
     <row r="10" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="27" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="18" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
     </row>
     <row r="11" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="17" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17" t="s">
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
     </row>
     <row r="12" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
@@ -2089,20 +2245,20 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="17" t="s">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
       <c r="P12" s="16" t="s">
         <v>324</v>
       </c>
@@ -2112,20 +2268,20 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="24" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="16" t="s">
         <v>259</v>
       </c>
@@ -2133,22 +2289,22 @@
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
     </row>
     <row r="14" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="16" t="s">
         <v>194</v>
       </c>
@@ -2156,103 +2312,103 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="18" t="s">
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
     </row>
     <row r="15" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="30" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="18" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="18" t="s">
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
     </row>
     <row r="16" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="22" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="20" t="s">
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
     </row>
     <row r="17" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="20" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
       <c r="P17" s="16" t="s">
         <v>276</v>
       </c>
@@ -2262,133 +2418,133 @@
       <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="22" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="17" t="s">
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
     </row>
     <row r="19" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="18" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="22" t="s">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="17" t="s">
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
     </row>
     <row r="20" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="20" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="17" t="s">
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
     </row>
     <row r="21" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
       <c r="P21" s="16" t="s">
         <v>295</v>
       </c>
@@ -2405,147 +2561,147 @@
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="22" t="s">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="18" t="s">
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
     </row>
     <row r="23" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="20" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="18" t="s">
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20" t="s">
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
     </row>
     <row r="24" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="18" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="27" t="s">
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="20" t="s">
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
     </row>
     <row r="25" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="27" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="18" t="s">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20" t="s">
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
     </row>
     <row r="26" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="22" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="17" t="s">
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
     </row>
     <row r="27" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
@@ -2555,20 +2711,20 @@
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="24" t="s">
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
       <c r="P27" s="16" t="s">
         <v>323</v>
       </c>
@@ -2578,20 +2734,20 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="16" t="s">
         <v>260</v>
       </c>
@@ -2599,13 +2755,13 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="20" t="s">
+      <c r="P28" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
     </row>
     <row r="29" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
@@ -2622,29 +2778,29 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="18" t="s">
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
     </row>
     <row r="30" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="16" t="s">
         <v>204</v>
       </c>
@@ -2652,41 +2808,103 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="18" t="s">
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:J29"/>
     <mergeCell ref="F15:J15"/>
@@ -2711,85 +2929,23 @@
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="K30:O30"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2800,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B126ADBD-F5D3-41E0-9768-A30995F5196A}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,10 +3690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F324F8-BADA-4D62-86E9-D8DF09E7AF93}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,7 +3722,7 @@
         <v>91</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="D2">
         <v>49</v>
@@ -4714,8 +4870,271 @@
         <v>372</v>
       </c>
     </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C71" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C72" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C74" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C75" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C76" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C77" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C78" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C79" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C80" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C82" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C83" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C84" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C85" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C87" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C88" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C89" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C90" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C91" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C92" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C93" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C94" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C95" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C96" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C97" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C99" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C100" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C101" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C102" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C103" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C104" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C105" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C106" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C107" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C108" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C109" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C111" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C112" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C113" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C114" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C116" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C117" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C118" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C119" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="C120" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C121" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E69">
+  <sortState ref="A2:E69">
     <sortCondition ref="E2:E69"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Declarações/Caixa de confissão.xlsx
+++ b/Declarações/Caixa de confissão.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Heber-EARQ\Treinamentos\Projeto-JavaScript\Declarações\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6D428F-C121-45CA-80C4-AF4BBC821E4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E32A1EB-3697-461E-88E4-3A9CFCE07606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{8C05EC88-38C5-472A-9600-1DCC62948BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
-    <sheet name="indice" sheetId="3" r:id="rId3"/>
+    <sheet name="Índice" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1519,29 +1519,17 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1555,10 +1543,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1567,16 +1573,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1922,29 +1922,29 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="30" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="16" t="s">
         <v>99</v>
       </c>
@@ -1952,13 +1952,13 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
       <c r="P2" s="16" t="s">
         <v>275</v>
       </c>
@@ -1968,13 +1968,13 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="16" t="s">
         <v>105</v>
       </c>
@@ -1982,103 +1982,103 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="26" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="20" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="26" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="30" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="20" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="26" t="s">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="30" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="20" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
       <c r="P6" s="16" t="s">
         <v>296</v>
       </c>
@@ -2095,147 +2095,147 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="20" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22" t="s">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="30" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="22" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="24" t="s">
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="22" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="26" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="24" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="15" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="22" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="11" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="26" t="s">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
@@ -2245,20 +2245,20 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="26" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="16" t="s">
         <v>324</v>
       </c>
@@ -2268,20 +2268,20 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="16" t="s">
         <v>259</v>
       </c>
@@ -2289,22 +2289,22 @@
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
     </row>
     <row r="14" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="16" t="s">
         <v>194</v>
       </c>
@@ -2312,103 +2312,103 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="22" t="s">
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="28" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="22" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="22" t="s">
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
     </row>
     <row r="16" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="20" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="24" t="s">
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
     </row>
     <row r="17" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="24" t="s">
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="16" t="s">
         <v>276</v>
       </c>
@@ -2418,133 +2418,133 @@
       <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="20" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="26" t="s">
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
     </row>
     <row r="19" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="20" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="26" t="s">
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
     </row>
     <row r="20" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="24" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="26" t="s">
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
     </row>
     <row r="21" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="24" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="16" t="s">
         <v>295</v>
       </c>
@@ -2561,147 +2561,147 @@
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="20" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="22" t="s">
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
     </row>
     <row r="23" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="24" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="22" t="s">
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="24" t="s">
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
     </row>
     <row r="24" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="22" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="15" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="24" t="s">
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
     </row>
     <row r="25" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="15" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="22" t="s">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24" t="s">
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
     </row>
     <row r="26" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="20" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="14" t="s">
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="26" t="s">
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
     </row>
     <row r="27" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
@@ -2711,20 +2711,20 @@
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="14" t="s">
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
       <c r="P27" s="16" t="s">
         <v>323</v>
       </c>
@@ -2734,20 +2734,20 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
       <c r="K28" s="16" t="s">
         <v>260</v>
       </c>
@@ -2755,13 +2755,13 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="24" t="s">
+      <c r="P28" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
     </row>
     <row r="29" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
@@ -2778,29 +2778,29 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="22" t="s">
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="16" t="s">
         <v>204</v>
       </c>
@@ -2808,33 +2808,111 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="22" t="s">
+      <c r="K30" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="22" t="s">
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
     <mergeCell ref="P27:T27"/>
     <mergeCell ref="P28:T28"/>
     <mergeCell ref="P29:T29"/>
@@ -2859,93 +2937,15 @@
     <mergeCell ref="K23:O23"/>
     <mergeCell ref="K24:O24"/>
     <mergeCell ref="K25:O25"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3693,7 +3693,7 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
